--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Password</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>4512-6514</t>
+  </si>
+  <si>
+    <t>Hesham</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>45687954</t>
   </si>
 </sst>
 </file>
@@ -102,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -498,8 +508,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
